--- a/configs/EnemyConfig.xlsx
+++ b/configs/EnemyConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SongOfBoat\B.O.A.T\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32C88AA-7AFB-4CDD-81E5-D5B2631E6C0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6524312-1F4F-4477-BF46-FE7577DE0D0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="2028" windowWidth="18948" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24744" yWindow="-396" windowWidth="18948" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/configs/EnemyConfig.xlsx
+++ b/configs/EnemyConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SongOfBoat\B.O.A.T\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6524312-1F4F-4477-BF46-FE7577DE0D0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A52D16-C509-43BD-AF89-BF8BA8ED7715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24744" yWindow="-396" windowWidth="18948" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25716" yWindow="564" windowWidth="15264" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,92 +63,93 @@
     <t>EnemyDescription</t>
   </si>
   <si>
+    <t>SkillFirst</t>
+  </si>
+  <si>
+    <t>SkillFirstWeight</t>
+  </si>
+  <si>
+    <t>SkillSecond</t>
+  </si>
+  <si>
+    <t>SkillSecondWeight</t>
+  </si>
+  <si>
+    <t>SkillThird</t>
+  </si>
+  <si>
+    <t>SkillThirdWeight</t>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物暴击率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物闪避</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试小怪1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试小怪2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试小怪3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1权重填3位数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>InitialAct</t>
-  </si>
-  <si>
-    <t>SkillFirst</t>
-  </si>
-  <si>
-    <t>SkillFirstWeight</t>
-  </si>
-  <si>
-    <t>SkillSecond</t>
-  </si>
-  <si>
-    <t>SkillSecondWeight</t>
-  </si>
-  <si>
-    <t>SkillThird</t>
-  </si>
-  <si>
-    <t>SkillThirdWeight</t>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Critical</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Agile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物血量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物护盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物暴击率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物闪避</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRING</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试小怪1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试小怪2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试小怪3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能1权重填3位数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +501,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -524,19 +525,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -545,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -571,87 +572,87 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -659,10 +660,10 @@
         <v>1001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>100</v>
@@ -706,10 +707,10 @@
         <v>1002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>200</v>
@@ -753,10 +754,10 @@
         <v>1003</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>300</v>

--- a/configs/EnemyConfig.xlsx
+++ b/configs/EnemyConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SongOfBoat\B.O.A.T\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A52D16-C509-43BD-AF89-BF8BA8ED7715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79790107-1D2D-43DE-93CC-5E423763A8F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25716" yWindow="564" windowWidth="15264" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22896" yWindow="264" windowWidth="21660" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,93 +63,95 @@
     <t>EnemyDescription</t>
   </si>
   <si>
+    <t>SkillSecond</t>
+  </si>
+  <si>
+    <t>SkillSecondWeight</t>
+  </si>
+  <si>
+    <t>SkillThird</t>
+  </si>
+  <si>
+    <t>SkillThirdWeight</t>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物暴击率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物闪避</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试小怪1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试小怪2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试小怪3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1权重填3位数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialAct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillFirstWeight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>SkillFirst</t>
-  </si>
-  <si>
-    <t>SkillFirstWeight</t>
-  </si>
-  <si>
-    <t>SkillSecond</t>
-  </si>
-  <si>
-    <t>SkillSecondWeight</t>
-  </si>
-  <si>
-    <t>SkillThird</t>
-  </si>
-  <si>
-    <t>SkillThirdWeight</t>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Critical</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Agile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物血量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物护盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物暴击率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物闪避</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRING</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试小怪1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试小怪2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试小怪3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能1权重填3位数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitialAct</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -500,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -525,19 +527,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -546,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -572,87 +574,87 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -660,10 +662,10 @@
         <v>1001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>100</v>
@@ -707,10 +709,10 @@
         <v>1002</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>200</v>
@@ -754,10 +756,10 @@
         <v>1003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>300</v>

--- a/configs/EnemyConfig.xlsx
+++ b/configs/EnemyConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SongOfBoat\B.O.A.T\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79790107-1D2D-43DE-93CC-5E423763A8F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB12ABA0-DFF0-4873-8679-194D6D5D3885}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22896" yWindow="264" windowWidth="21660" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-1680" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>怪物ID</t>
   </si>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>SkillFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -798,6 +802,53 @@
         <v>200</v>
       </c>
     </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2">
+        <v>200</v>
+      </c>
+      <c r="E7" s="2">
+        <v>200</v>
+      </c>
+      <c r="F7" s="2">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10002</v>
+      </c>
+      <c r="K7" s="2">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10004</v>
+      </c>
+      <c r="M7" s="2">
+        <v>400</v>
+      </c>
+      <c r="N7" s="2">
+        <v>10003</v>
+      </c>
+      <c r="O7" s="2">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
